--- a/kb/unit-converter/flow-volumetic.xlsx
+++ b/kb/unit-converter/flow-volumetic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Measure Label</t>
   </si>
@@ -54,6 +54,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt; The first unit of measure should </t>
     </r>
@@ -63,6 +64,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">always</t>
     </r>
@@ -71,6 +73,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> have a factor of 1.  All other factors relate to this default unit. You may choose any unit for this, and the system will perform all conversions between any listed unit of measure.</t>
     </r>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Usbl/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bblpd (oil)</t>
   </si>
 </sst>
 </file>
@@ -131,6 +137,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,6 +159,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,10 +230,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,6 +403,20 @@
         <v>0.104830197736574</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>151.515151515152</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="n">
+        <f aca="false">1/0.0066</f>
+        <v>151.515151515152</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kb/unit-converter/flow-volumetic.xlsx
+++ b/kb/unit-converter/flow-volumetic.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,7 +408,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>151.515151515152</v>
+        <v>150.9703</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/kb/unit-converter/flow-volumetic.xlsx
+++ b/kb/unit-converter/flow-volumetic.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">ft3/s</t>
   </si>
   <si>
-    <t xml:space="preserve">Usgpm</t>
+    <t xml:space="preserve">USgpm</t>
   </si>
   <si>
     <t xml:space="preserve">l/min</t>
@@ -112,13 +112,13 @@
     <t xml:space="preserve">m3/day</t>
   </si>
   <si>
-    <t xml:space="preserve">Ukgpm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usbl/day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usbl/min</t>
+    <t xml:space="preserve">UKgpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USbl/day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USbl/min</t>
   </si>
   <si>
     <t xml:space="preserve">bblpd (oil)</t>
@@ -233,7 +233,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/kb/unit-converter/flow-volumetic.xlsx
+++ b/kb/unit-converter/flow-volumetic.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/kb/unit-converter/flow-volumetic.xlsx
+++ b/kb/unit-converter/flow-volumetic.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_351B86D3042D4FB7A8F0A76CCC683B92E902A9F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A14C027-65C7-4523-9602-F7BEB41501B9}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F5E2D-7F1E-4E36-B3A6-FD82C39D6AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="2235" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Measure Label</t>
   </si>
@@ -170,13 +172,108 @@
   <si>
     <t>Million gal/day (US)</t>
   </si>
+  <si>
+    <t>cubic meter per hour</t>
+  </si>
+  <si>
+    <t>barrel per day (Petroleum)</t>
+  </si>
+  <si>
+    <t>barrel per day (US)</t>
+  </si>
+  <si>
+    <t>barrel per day (Imperial)</t>
+  </si>
+  <si>
+    <t>barrel per minute (Petroleum)</t>
+  </si>
+  <si>
+    <t>barrel per minute (US)</t>
+  </si>
+  <si>
+    <t>barrel per minute (Imperial)</t>
+  </si>
+  <si>
+    <t>cubic foot per minute</t>
+  </si>
+  <si>
+    <t>cubic foot per second</t>
+  </si>
+  <si>
+    <t>gallon per hour (US)</t>
+  </si>
+  <si>
+    <t>gallon per day (US)</t>
+  </si>
+  <si>
+    <t>gallon per minute (Imperial)</t>
+  </si>
+  <si>
+    <t>gallon per minute (US)</t>
+  </si>
+  <si>
+    <t>liter per minute</t>
+  </si>
+  <si>
+    <t>liter per second</t>
+  </si>
+  <si>
+    <t>liter per hour</t>
+  </si>
+  <si>
+    <t>liter per day</t>
+  </si>
+  <si>
+    <t>milliliter per hour</t>
+  </si>
+  <si>
+    <t>cubic centimeter per hour</t>
+  </si>
+  <si>
+    <t>cubic millimeter per hour</t>
+  </si>
+  <si>
+    <t>million liters per day</t>
+  </si>
+  <si>
+    <t>cubic meter per day</t>
+  </si>
+  <si>
+    <t>cubic meter per minute</t>
+  </si>
+  <si>
+    <t>cubic meter per second</t>
+  </si>
+  <si>
+    <t>million gallons per day (Imperial)</t>
+  </si>
+  <si>
+    <t>million gallons per day (US)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -187,15 +284,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,18 +309,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{525E9E86-620B-4675-BE74-7582370D1D6C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,9 +341,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +381,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +487,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,22 +637,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -561,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -569,251 +676,335 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <v>150.95545367460167</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>201.2739446544</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
         <v>146.64616554</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
         <v>0.13977357295621382</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
         <v>0.10483017637257817</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
         <v>0.10183761516200857</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
         <v>0.58857775494096298</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
         <v>9.8096292490160407E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
         <v>264.17205841794777</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
         <v>6340.1292412417961</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
         <v>3.6661541456504376</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
         <v>4.4028676402991298</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
         <v>16.666666666666668</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <v>24000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
         <v>1000000000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
         <v>1.6666666699999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>2.777778E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
         <v>5.2792619593E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
         <v>6.3401292299E-3</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E40" s="2"/>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B30">
@@ -829,6 +1020,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -837,7 +1039,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -1074,25 +1276,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF8FFC5-6B1C-410A-9C55-4B870B373A70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB477E2-57E8-4B68-80A5-A4D8693555D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{042E57E3-4A3D-4E70-BAC3-08BD67A60B63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF8FFC5-6B1C-410A-9C55-4B870B373A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB477E2-57E8-4B68-80A5-A4D8693555D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{042E57E3-4A3D-4E70-BAC3-08BD67A60B63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kb/unit-converter/flow-volumetic.xlsx
+++ b/kb/unit-converter/flow-volumetic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F5E2D-7F1E-4E36-B3A6-FD82C39D6AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00869BC-B942-4DB3-B783-F3DA7AB35287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="2235" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23265" yWindow="1215" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Measure Label</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
+  </si>
+  <si>
+    <t>Use this to select the row with the default "to" conversion value when the page loads (default is 8)</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
   </si>
 </sst>
 </file>
@@ -637,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -676,339 +685,358 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>150.95545367460167</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>201.2739446544</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>146.64616554</v>
+        <v>150.95545367460167</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.13977357295621382</v>
+        <v>201.2739446544</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.10483017637257817</v>
+        <v>146.64616554</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.10183761516200857</v>
+        <v>0.13977357295621382</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.58857775494096298</v>
+        <v>0.10483017637257817</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>9.8096292490160407E-3</v>
+        <v>0.10183761516200857</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>264.17205841794777</v>
+        <v>0.58857775494096298</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>9.8096292490160407E-3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>264.17205841794777</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>6340.1292412417961</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>3.6661541456504376</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>4.4028676402991298</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>16.666666666666668</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>0.27777777777777779</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>1000</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>24000</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>26</v>
-      </c>
-      <c r="B23">
-        <v>1000000000</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>1000000000</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
       </c>
       <c r="B25">
         <v>1000000000</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1000000000</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1000000000</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>1000000000000</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>2.4E-2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>24</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>1.6666666699999999E-2</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>2.777778E-4</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>5.2792619593E-3</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>6.3401292299E-3</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B30">
-    <sortCondition ref="A7:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:B32">
+    <sortCondition ref="A9:A32"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1020,6 +1048,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
@@ -1028,15 +1065,6 @@
     <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1277,20 +1305,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF8FFC5-6B1C-410A-9C55-4B870B373A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB477E2-57E8-4B68-80A5-A4D8693555D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
     <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF8FFC5-6B1C-410A-9C55-4B870B373A70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/kb/unit-converter/flow-volumetic.xlsx
+++ b/kb/unit-converter/flow-volumetic.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_351B86D3042D4FB7A8F0A76CCC683B92E902A9F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A14C027-65C7-4523-9602-F7BEB41501B9}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00869BC-B942-4DB3-B783-F3DA7AB35287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23265" yWindow="1215" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Measure Label</t>
   </si>
@@ -170,13 +172,117 @@
   <si>
     <t>Million gal/day (US)</t>
   </si>
+  <si>
+    <t>cubic meter per hour</t>
+  </si>
+  <si>
+    <t>barrel per day (Petroleum)</t>
+  </si>
+  <si>
+    <t>barrel per day (US)</t>
+  </si>
+  <si>
+    <t>barrel per day (Imperial)</t>
+  </si>
+  <si>
+    <t>barrel per minute (Petroleum)</t>
+  </si>
+  <si>
+    <t>barrel per minute (US)</t>
+  </si>
+  <si>
+    <t>barrel per minute (Imperial)</t>
+  </si>
+  <si>
+    <t>cubic foot per minute</t>
+  </si>
+  <si>
+    <t>cubic foot per second</t>
+  </si>
+  <si>
+    <t>gallon per hour (US)</t>
+  </si>
+  <si>
+    <t>gallon per day (US)</t>
+  </si>
+  <si>
+    <t>gallon per minute (Imperial)</t>
+  </si>
+  <si>
+    <t>gallon per minute (US)</t>
+  </si>
+  <si>
+    <t>liter per minute</t>
+  </si>
+  <si>
+    <t>liter per second</t>
+  </si>
+  <si>
+    <t>liter per hour</t>
+  </si>
+  <si>
+    <t>liter per day</t>
+  </si>
+  <si>
+    <t>milliliter per hour</t>
+  </si>
+  <si>
+    <t>cubic centimeter per hour</t>
+  </si>
+  <si>
+    <t>cubic millimeter per hour</t>
+  </si>
+  <si>
+    <t>million liters per day</t>
+  </si>
+  <si>
+    <t>cubic meter per day</t>
+  </si>
+  <si>
+    <t>cubic meter per minute</t>
+  </si>
+  <si>
+    <t>cubic meter per second</t>
+  </si>
+  <si>
+    <t>million gallons per day (Imperial)</t>
+  </si>
+  <si>
+    <t>million gallons per day (US)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
+  </si>
+  <si>
+    <t>Use this to select the row with the default "to" conversion value when the page loads (default is 8)</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -187,15 +293,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,18 +318,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{525E9E86-620B-4675-BE74-7582370D1D6C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +390,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,22 +646,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -561,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -569,255 +685,358 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>150.95545367460167</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>201.2739446544</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>146.64616554</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>0.13977357295621382</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>0.10483017637257817</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>0.10183761516200857</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>0.58857775494096298</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>9.8096292490160407E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>264.17205841794777</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>6340.1292412417961</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>3.6661541456504376</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>4.4028676402991298</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>16.666666666666668</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>24000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>26</v>
-      </c>
-      <c r="B23">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
       </c>
       <c r="B25">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1000000000</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1000000000</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>1000000000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>1.6666666699999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>2.777778E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>5.2792619593E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>6.3401292299E-3</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B30">
-    <sortCondition ref="A7:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:B32">
+    <sortCondition ref="A9:A32"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -838,6 +1057,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -1074,25 +1304,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF8FFC5-6B1C-410A-9C55-4B870B373A70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF8FFC5-6B1C-410A-9C55-4B870B373A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{042E57E3-4A3D-4E70-BAC3-08BD67A60B63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB477E2-57E8-4B68-80A5-A4D8693555D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB477E2-57E8-4B68-80A5-A4D8693555D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{042E57E3-4A3D-4E70-BAC3-08BD67A60B63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>